--- a/Documentação/Planilhas/Layouts/Rentabilidade.xlsx
+++ b/Documentação/Planilhas/Layouts/Rentabilidade.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="29" activeTab="35"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
   </bookViews>
   <sheets>
-    <sheet name="stg_estrutura_parceiro_b2b" sheetId="163" r:id="rId1"/>
+    <sheet name="Resumo" sheetId="93" r:id="rId1"/>
     <sheet name="aux_custo_logistico_rateado" sheetId="159" r:id="rId2"/>
     <sheet name="aux_dim_campanha_contrato_b2b" sheetId="151" r:id="rId3"/>
     <sheet name="aux_estoque_cubado" sheetId="160" r:id="rId4"/>
@@ -42,14 +42,13 @@
     <sheet name="tmp_orders_profitable" sheetId="132" r:id="rId33"/>
     <sheet name="tmp_orders_profitable_2" sheetId="133" r:id="rId34"/>
     <sheet name="tmp_orders_profitable_atacado" sheetId="156" r:id="rId35"/>
-    <sheet name="Resumo" sheetId="93" r:id="rId36"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="629">
   <si>
     <t>Campo</t>
   </si>
@@ -1932,94 +1931,10 @@
     <t>Valor da Margem do Produto</t>
   </si>
   <si>
-    <t>[com].[stg_estrutura_parceiro_b2b]</t>
-  </si>
-  <si>
-    <t>MIS_STAGING</t>
-  </si>
-  <si>
-    <t>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_estrutura_parceiro_b2b.dtsx</t>
-  </si>
-  <si>
-    <t>nr_campanha_b2b</t>
-  </si>
-  <si>
-    <t>nr_contrato_b2b</t>
-  </si>
-  <si>
-    <t>nr_id_parceiro</t>
-  </si>
-  <si>
-    <t>ds_parceiro</t>
-  </si>
-  <si>
-    <t>ds_terceiro</t>
-  </si>
-  <si>
-    <t>ds_celula</t>
-  </si>
-  <si>
-    <t>ds_canal</t>
-  </si>
-  <si>
-    <t>ds_desconto</t>
-  </si>
-  <si>
-    <t>ds_parceiro_b2b</t>
-  </si>
-  <si>
-    <t>ds_campanha</t>
-  </si>
-  <si>
-    <t>Identifica a Unidade de Negócio através da sua descrição. Ex: B2B Casas Bahia, B2B Extra, B2B PF, etc</t>
-  </si>
-  <si>
-    <t>Identifica a Campanha através do seu código. Ex: 38, 869, etc</t>
-  </si>
-  <si>
-    <t>Identifica o contrato através do seu número. Ex: 37, 235, etc</t>
-  </si>
-  <si>
-    <t>Identifica o Parceiro através do seu código. Ex: -1, 37, etc</t>
-  </si>
-  <si>
-    <t>Identifica o Parceiro através da sua descrição. Ex: Não Informado, amex, etc</t>
-  </si>
-  <si>
-    <t>Identifica o Terceiro através da sua razão social. Ex: ITAÚ SEGUROS S/A, BV FINANCEIRA S/A CFI, etc</t>
-  </si>
-  <si>
-    <t>Identifica a Célula através da sua descrição. Ex: Não Informado, Parceria, etc</t>
-  </si>
-  <si>
-    <t>Identifica o Canal através da sua descrição. Ex: Não Informado, Parceria, etc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifica o Desconto através da sua descrição. Ex: pancartoes, pontoeduca, sulamerica, etc </t>
-  </si>
-  <si>
-    <t>Identifica o Parceiro através da sua descrição. Ex: Amex_Select, strategybox, etc</t>
-  </si>
-  <si>
-    <t>Identifica a Campanha através da sua descrição. Ex: Recompenso, Timac Agro Indústria, Itaú Psp Personnalite, Sempre Mais, etc</t>
-  </si>
-  <si>
-    <t>vw_fact_ordersweb</t>
-  </si>
-  <si>
-    <t>ods_unidade_negocio</t>
-  </si>
-  <si>
-    <t>ods_terceiro_corporativo</t>
-  </si>
-  <si>
-    <t>ods_approved</t>
-  </si>
-  <si>
-    <t>dim_parceiro</t>
-  </si>
-  <si>
-    <t>parei no coleta parceiro do stg_estrutura_parceiro_b2b</t>
+    <t>Sharepoint List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx </t>
   </si>
 </sst>
 </file>
@@ -3689,51 +3604,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing35.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>545167</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>14568</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="78442" y="67236"/>
-          <a:ext cx="2047875" cy="861732"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4290,214 +4160,620 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="90.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>631</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="22" t="s">
-        <v>632</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="22" t="s">
-        <v>635</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="29"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="22" t="s">
-        <v>636</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="22" t="s">
-        <v>637</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="22" t="s">
-        <v>638</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>650</v>
-      </c>
+    <row r="2" spans="2:5">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15">
+      <c r="B3" s="23" t="str">
+        <f>tmp_margem!B9</f>
+        <v>[dbo].[tmp_margem]</v>
+      </c>
+      <c r="C3" s="18" t="str">
+        <f>tmp_margem!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D3" s="19" t="str">
+        <f>tmp_margem!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\carga_margem_produto_sas.dtsx</v>
+      </c>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="2:5" ht="15">
+      <c r="B4" s="23" t="str">
+        <f>aux_custo_logistico_rateado!B9</f>
+        <v>[dbo].[aux_custo_logistico_rateado]</v>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f>aux_custo_logistico_rateado!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D4" s="19" t="str">
+        <f>aux_custo_logistico_rateado!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_custo_logistico.dtsx</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="2:5" ht="15">
+      <c r="B5" s="23" t="str">
+        <f>aux_estoque_cubado!B9</f>
+        <v>[dbo].[aux_estoque_cubado]</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>aux_estoque_cubado!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D5" s="19" t="str">
+        <f>aux_estoque_cubado!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_custo_logistico.dtsx</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="2:5" ht="15">
+      <c r="B6" s="23" t="str">
+        <f>ods_custo_logistico_rateado!B9</f>
+        <v>[dbo].[ods_custo_logistico_rateado]</v>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f>ods_custo_logistico_rateado!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D6" s="19" t="str">
+        <f>ods_custo_logistico_rateado!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_custo_logistico.dtsx</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="2:5" ht="15">
+      <c r="B7" s="23" t="str">
+        <f>aux_dim_campanha_contrato_b2b!B9</f>
+        <v>[dbo].[aux_dim_campanha_contrato_b2b]</v>
+      </c>
+      <c r="C7" s="18" t="str">
+        <f>aux_dim_campanha_contrato_b2b!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D7" s="19" t="str">
+        <f>aux_dim_campanha_contrato_b2b!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="2:5" ht="15">
+      <c r="B8" s="23" t="str">
+        <f>dim_campanha_contrato_b2b!B9</f>
+        <v>[dbo].[dim_campanha_contrato_b2b]</v>
+      </c>
+      <c r="C8" s="18" t="str">
+        <f>dim_campanha_contrato_b2b!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D8" s="19" t="str">
+        <f>dim_campanha_contrato_b2b!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="2:5" ht="15">
+      <c r="B9" s="23" t="str">
+        <f>dim_canal!B9</f>
+        <v>[dbo].[dim_canal]</v>
+      </c>
+      <c r="C9" s="18" t="str">
+        <f>dim_canal!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D9" s="19" t="str">
+        <f>dim_canal!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="2:5" ht="15">
+      <c r="B10" s="23" t="str">
+        <f>dim_cliente_corporativo!B9</f>
+        <v>[dbo].[dim_cliente_corporativo]</v>
+      </c>
+      <c r="C10" s="18" t="str">
+        <f>dim_cliente_corporativo!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D10" s="19" t="str">
+        <f>dim_cliente_corporativo!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="2:5" ht="15">
+      <c r="B11" s="23" t="str">
+        <f>dim_data!B9</f>
+        <v>[dbo].[dim_data]</v>
+      </c>
+      <c r="C11" s="18" t="str">
+        <f>dim_data!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D11" s="19" t="str">
+        <f>dim_data!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="2:5" ht="15">
+      <c r="B12" s="23" t="str">
+        <f>dim_estabelecimento!B9</f>
+        <v>[dbo].[dim_estabelecimento]</v>
+      </c>
+      <c r="C12" s="18" t="str">
+        <f>dim_estabelecimento!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D12" s="19" t="str">
+        <f>dim_estabelecimento!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="2:5" ht="15">
+      <c r="B13" s="23" t="str">
+        <f>dim_pagto!B9</f>
+        <v>[dbo].[dim_pagto]</v>
+      </c>
+      <c r="C13" s="18" t="str">
+        <f>dim_pagto!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D13" s="19" t="str">
+        <f>dim_pagto!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
+      </c>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="2:5" ht="15">
+      <c r="B14" s="23" t="str">
+        <f>dim_tipo_cliente!B9</f>
+        <v>[dbo].[dim_tipo_cliente]</v>
+      </c>
+      <c r="C14" s="18" t="str">
+        <f>dim_tipo_cliente!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D14" s="19" t="str">
+        <f>dim_tipo_cliente!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="2:5" ht="15">
+      <c r="B15" s="23" t="str">
+        <f>dim_transp!B9</f>
+        <v>[dbo].[dim_transp]</v>
+      </c>
+      <c r="C15" s="18" t="str">
+        <f>dim_transp!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D15" s="19" t="str">
+        <f>dim_transp!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
+      </c>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="2:5" ht="15">
+      <c r="B16" s="23" t="str">
+        <f>dim_unineg!B9</f>
+        <v>[dbo].[dim_unineg]</v>
+      </c>
+      <c r="C16" s="18" t="str">
+        <f>dim_unineg!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D16" s="19" t="str">
+        <f>dim_unineg!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
+      </c>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="2:5" ht="15">
+      <c r="B17" s="23" t="str">
+        <f>dim_vendedor!B9</f>
+        <v>[dbo].[dim_vendedor]</v>
+      </c>
+      <c r="C17" s="18" t="str">
+        <f>dim_vendedor!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D17" s="19" t="str">
+        <f>dim_vendedor!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
+      </c>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="2:5" ht="15">
+      <c r="B18" s="23" t="str">
+        <f>ods_cliente_corporativo!B9</f>
+        <v>[dbo].[ods_cliente_corporativo]</v>
+      </c>
+      <c r="C18" s="18" t="str">
+        <f>ods_cliente_corporativo!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D18" s="19" t="str">
+        <f>ods_cliente_corporativo!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
+      </c>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="2:5" ht="15">
+      <c r="B19" s="23" t="str">
+        <f>ods_orders_ge!B9</f>
+        <v>[dbo].[ods_orders_ge]</v>
+      </c>
+      <c r="C19" s="18" t="str">
+        <f>ods_orders_ge!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D19" s="19" t="str">
+        <f>ods_orders_ge!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
+      </c>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="2:5" ht="15">
+      <c r="B20" s="23" t="str">
+        <f>ods_parceiro_mkt!B9</f>
+        <v>[dbo].[ods_parceiro_mkt]</v>
+      </c>
+      <c r="C20" s="18" t="str">
+        <f>ods_parceiro_mkt!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D20" s="19" t="str">
+        <f>ods_parceiro_mkt!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="2:5" ht="15">
+      <c r="B21" s="23" t="str">
+        <f>dim_campanha!B9</f>
+        <v>[dbo].[dim_campanha]</v>
+      </c>
+      <c r="C21" s="18" t="str">
+        <f>dim_campanha!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D21" s="19" t="str">
+        <f>dim_campanha!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx e ods_dim_rentabilidade_LN.dtsx</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15">
+      <c r="B22" s="23" t="str">
+        <f>dim_fornecedor!B9</f>
+        <v>[dbo].[dim_fornecedor]</v>
+      </c>
+      <c r="C22" s="18" t="str">
+        <f>dim_fornecedor!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D22" s="19" t="str">
+        <f>dim_fornecedor!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx e ods_dim_rentabilidade_LN.dtsx</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15">
+      <c r="B23" s="23" t="str">
+        <f>dim_item!B9</f>
+        <v>[dbo].[dim_item]</v>
+      </c>
+      <c r="C23" s="18" t="str">
+        <f>dim_item!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D23" s="19" t="str">
+        <f>dim_item!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx e ods_dim_rentabilidade_LN.dtsx</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15">
+      <c r="B24" s="23" t="str">
+        <f>dim_regiao!B9</f>
+        <v>[dbo].[dim_regiao]</v>
+      </c>
+      <c r="C24" s="18" t="str">
+        <f>dim_regiao!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D24" s="19" t="str">
+        <f>dim_regiao!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx e ods_dim_rentabilidade_LN.dtsx</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15">
+      <c r="B25" s="23" t="str">
+        <f>ods_orders_profitable!B9</f>
+        <v>[dbo].[ods_orders_profitable]</v>
+      </c>
+      <c r="C25" s="18" t="str">
+        <f>ods_orders_profitable!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D25" s="19" t="str">
+        <f>ods_orders_profitable!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx e ods_dim_rentabilidade_LN.dtsx</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15">
+      <c r="B26" s="23" t="str">
+        <f>dim_origem!B9</f>
+        <v>[dbo].[dim_origem]</v>
+      </c>
+      <c r="C26" s="18" t="str">
+        <f>dim_origem!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D26" s="19" t="str">
+        <f>dim_origem!B10</f>
+        <v xml:space="preserve">N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx </v>
+      </c>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="2:5" ht="15">
+      <c r="B27" s="23" t="str">
+        <f>ods_faturamento_servico!B9</f>
+        <v>[dbo].[ods_faturamento_servico]</v>
+      </c>
+      <c r="C27" s="18" t="str">
+        <f>ods_faturamento_servico!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D27" s="19" t="str">
+        <f>ods_faturamento_servico!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_lucro_servico_ge.dtsx</v>
+      </c>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="2:5" ht="15">
+      <c r="B28" s="23" t="str">
+        <f>stg_faturamento_servico!B9</f>
+        <v>[dbo].[stg_faturamento_servico]</v>
+      </c>
+      <c r="C28" s="18" t="str">
+        <f>stg_faturamento_servico!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D28" s="19" t="str">
+        <f>stg_faturamento_servico!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_lucro_servico_ge.dtsx</v>
+      </c>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="2:5" ht="15">
+      <c r="B29" s="23" t="str">
+        <f>stg_campanha_contrato_b2b!B9</f>
+        <v>[dbo].[stg_campanha_contrato_b2b]</v>
+      </c>
+      <c r="C29" s="18" t="str">
+        <f>stg_campanha_contrato_b2b!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D29" s="19" t="str">
+        <f>stg_campanha_contrato_b2b!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_rentabilidade.dtsx</v>
+      </c>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="2:5" ht="15">
+      <c r="B30" s="23" t="str">
+        <f>stg_cliente_corporativo!B9</f>
+        <v>[dbo].[stg_cliente_corporativo]</v>
+      </c>
+      <c r="C30" s="18" t="str">
+        <f>stg_cliente_corporativo!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D30" s="19" t="str">
+        <f>stg_cliente_corporativo!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_rentabilidade.dtsx</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="2:5" ht="15">
+      <c r="B31" s="23" t="str">
+        <f>stg_pedido_campanha_contr_b2b!B9</f>
+        <v>[dbo].[stg_pedido_campanha_contrato_b2b]</v>
+      </c>
+      <c r="C31" s="18" t="str">
+        <f>stg_pedido_campanha_contr_b2b!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D31" s="19" t="str">
+        <f>stg_pedido_campanha_contr_b2b!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_rentabilidade.dtsx</v>
+      </c>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="2:5" ht="15">
+      <c r="B32" s="23" t="str">
+        <f>stg_tipo_cliente!B9</f>
+        <v>[dbo].[stg_tipo_cliente]</v>
+      </c>
+      <c r="C32" s="18" t="str">
+        <f>stg_tipo_cliente!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D32" s="19" t="str">
+        <f>stg_tipo_cliente!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_rentabilidade.dtsx</v>
+      </c>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="2:5" ht="15">
+      <c r="B33" s="23" t="str">
+        <f>tmp_orders_ge!B9</f>
+        <v>[dbo].[tmp_orders_ge]</v>
+      </c>
+      <c r="C33" s="18" t="str">
+        <f>tmp_orders_ge!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D33" s="19" t="str">
+        <f>tmp_orders_ge!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_rentabilidade.dtsx</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="2:5" ht="15">
+      <c r="B34" s="23" t="str">
+        <f>tmp_orders_profitable_2!B9</f>
+        <v>[dbo].[tmp_orders_profitable_2]</v>
+      </c>
+      <c r="C34" s="18" t="str">
+        <f>tmp_orders_profitable_2!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D34" s="19" t="str">
+        <f>tmp_orders_profitable_2!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_rentabilidade.dtsx</v>
+      </c>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="2:5" ht="15">
+      <c r="B35" s="23" t="str">
+        <f>tmp_orders_profitable!B9</f>
+        <v>[dbo].[tmp_orders_profitable]</v>
+      </c>
+      <c r="C35" s="18" t="str">
+        <f>tmp_orders_profitable!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D35" s="19" t="str">
+        <f>tmp_orders_profitable!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_rentabilidade.dtsx e stg_rentabilidade_LN.dtsx</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="15">
+      <c r="B36" s="23" t="str">
+        <f>tmp_orders_profitable_atacado!B9</f>
+        <v>[dbo].[tmp_orders_profitable_atacado]</v>
+      </c>
+      <c r="C36" s="18" t="str">
+        <f>tmp_orders_profitable_atacado!B8</f>
+        <v>MIS_RENTAB</v>
+      </c>
+      <c r="D36" s="19" t="str">
+        <f>tmp_orders_profitable_atacado!B10</f>
+        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_rentabilidade_atacado.dtsx</v>
+      </c>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="2:5" ht="15">
+      <c r="B37" s="23"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="14"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="15"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <sortState ref="B3:E36">
+    <sortCondition ref="D3"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B33" location="tmp_orders_ge!A1" display="tmp_orders_ge!A1"/>
+    <hyperlink ref="B30" location="stg_cliente_corporativo!A1" display="stg_cliente_corporativo!A1"/>
+    <hyperlink ref="B32" location="stg_tipo_cliente!A1" display="stg_tipo_cliente!A1"/>
+    <hyperlink ref="B31" location="stg_pedido_campanha_contr_b2b!A1" display="stg_pedido_campanha_contr_b2b!A1"/>
+    <hyperlink ref="B29" location="stg_campanha_contrato_b2b!A1" display="stg_campanha_contrato_b2b!A1"/>
+    <hyperlink ref="B35" location="tmp_orders_profitable!A1" display="tmp_orders_profitable!A1"/>
+    <hyperlink ref="B34" location="tmp_orders_profitable_2!A1" display="tmp_orders_profitable_2!A1"/>
+    <hyperlink ref="B17" location="dim_vendedor!A1" display="dim_vendedor!A1"/>
+    <hyperlink ref="B11" location="dim_data!A1" display="dim_data!A1"/>
+    <hyperlink ref="B16" location="dim_unineg!A1" display="dim_unineg!A1"/>
+    <hyperlink ref="B23" location="dim_item!A1" display="dim_item!A1"/>
+    <hyperlink ref="B24" location="dim_regiao!A1" display="dim_regiao!A1"/>
+    <hyperlink ref="B15" location="dim_transp!A1" display="dim_transp!A1"/>
+    <hyperlink ref="B9" location="dim_canal!A1" display="dim_canal!A1"/>
+    <hyperlink ref="B13" location="dim_pagto!A1" display="dim_pagto!A1"/>
+    <hyperlink ref="B21" location="dim_campanha!A1" display="dim_campanha!A1"/>
+    <hyperlink ref="B26" location="dim_origem!A1" display="dim_origem!A1"/>
+    <hyperlink ref="B20" location="ods_parceiro_mkt!A1" display="ods_parceiro_mkt!A1"/>
+    <hyperlink ref="B22" location="dim_fornecedor!A1" display="dim_fornecedor!A1"/>
+    <hyperlink ref="B12" location="dim_estabelecimento!A1" display="dim_estabelecimento!A1"/>
+    <hyperlink ref="B18" location="ods_cliente_corporativo!A1" display="ods_cliente_corporativo!A1"/>
+    <hyperlink ref="B10" location="dim_cliente_corporativo!A1" display="dim_cliente_corporativo!A1"/>
+    <hyperlink ref="B14" location="dim_tipo_cliente!A1" display="dim_tipo_cliente!A1"/>
+    <hyperlink ref="B8" location="dim_campanha_contrato_b2b!A1" display="dim_campanha_contrato_b2b!A1"/>
+    <hyperlink ref="B7" location="aux_dim_campanha_contrato_b2b!A1" display="aux_dim_campanha_contrato_b2b!A1"/>
+    <hyperlink ref="B25" location="ods_orders_profitable!A1" display="ods_orders_profitable!A1"/>
+    <hyperlink ref="B19" location="ods_orders_ge!A1" display="ods_orders_ge!A1"/>
+    <hyperlink ref="B36" location="tmp_orders_profitable_atacado!A1" display="tmp_orders_profitable_atacado!A1"/>
+    <hyperlink ref="B28" location="stg_faturamento_servico!A1" display="stg_faturamento_servico!A1"/>
+    <hyperlink ref="B27" location="ods_faturamento_servico!A1" display="ods_faturamento_servico!A1"/>
+    <hyperlink ref="B5" location="aux_estoque_cubado!A1" display="aux_estoque_cubado!A1"/>
+    <hyperlink ref="B4" location="aux_custo_logistico_rateado!A1" display="aux_custo_logistico_rateado!A1"/>
+    <hyperlink ref="B6" location="ods_custo_logistico_rateado!A1" display="ods_custo_logistico_rateado!A1"/>
+    <hyperlink ref="B3" location="tmp_margem!A1" display="tmp_margem!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5035,7 +5311,9 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -5089,7 +5367,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>504</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -5128,7 +5406,9 @@
       <c r="B15" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>627</v>
+      </c>
       <c r="E15" s="17"/>
     </row>
   </sheetData>
@@ -11122,7 +11402,7 @@
   </sheetPr>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -11975,668 +12255,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="B2:E44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="90.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15">
-      <c r="B3" s="23" t="str">
-        <f>stg_estrutura_parceiro_b2b!B9</f>
-        <v>[com].[stg_estrutura_parceiro_b2b]</v>
-      </c>
-      <c r="C3" s="18" t="str">
-        <f>stg_estrutura_parceiro_b2b!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D3" s="19" t="str">
-        <f>stg_estrutura_parceiro_b2b!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_estrutura_parceiro_b2b.dtsx</v>
-      </c>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="2:5" ht="15">
-      <c r="B4" s="23" t="str">
-        <f>aux_custo_logistico_rateado!B9</f>
-        <v>[dbo].[aux_custo_logistico_rateado]</v>
-      </c>
-      <c r="C4" s="18" t="str">
-        <f>aux_custo_logistico_rateado!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D4" s="19" t="str">
-        <f>aux_custo_logistico_rateado!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_custo_logistico.dtsx</v>
-      </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="2:5" ht="15">
-      <c r="B5" s="23" t="str">
-        <f>aux_dim_campanha_contrato_b2b!B9</f>
-        <v>[dbo].[aux_dim_campanha_contrato_b2b]</v>
-      </c>
-      <c r="C5" s="18" t="str">
-        <f>aux_dim_campanha_contrato_b2b!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D5" s="19" t="str">
-        <f>aux_dim_campanha_contrato_b2b!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
-      </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="2:5" ht="15">
-      <c r="B6" s="23" t="str">
-        <f>aux_estoque_cubado!B9</f>
-        <v>[dbo].[aux_estoque_cubado]</v>
-      </c>
-      <c r="C6" s="18" t="str">
-        <f>aux_estoque_cubado!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D6" s="19" t="str">
-        <f>aux_estoque_cubado!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_custo_logistico.dtsx</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="2:5" ht="15">
-      <c r="B7" s="23" t="str">
-        <f>dim_campanha!B9</f>
-        <v>[dbo].[dim_campanha]</v>
-      </c>
-      <c r="C7" s="18" t="str">
-        <f>dim_campanha!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D7" s="19" t="str">
-        <f>dim_campanha!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx e ods_dim_rentabilidade_LN.dtsx</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15">
-      <c r="B8" s="23" t="str">
-        <f>dim_campanha_contrato_b2b!B9</f>
-        <v>[dbo].[dim_campanha_contrato_b2b]</v>
-      </c>
-      <c r="C8" s="18" t="str">
-        <f>dim_campanha_contrato_b2b!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D8" s="19" t="str">
-        <f>dim_campanha_contrato_b2b!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
-      </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="2:5" ht="15">
-      <c r="B9" s="23" t="str">
-        <f>dim_canal!B9</f>
-        <v>[dbo].[dim_canal]</v>
-      </c>
-      <c r="C9" s="18" t="str">
-        <f>dim_canal!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D9" s="19" t="str">
-        <f>dim_canal!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
-      </c>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="2:5" ht="15">
-      <c r="B10" s="23" t="str">
-        <f>dim_cliente_corporativo!B9</f>
-        <v>[dbo].[dim_cliente_corporativo]</v>
-      </c>
-      <c r="C10" s="18" t="str">
-        <f>dim_cliente_corporativo!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D10" s="19" t="str">
-        <f>dim_cliente_corporativo!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
-      </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="2:5" ht="15">
-      <c r="B11" s="23" t="str">
-        <f>dim_data!B9</f>
-        <v>[dbo].[dim_data]</v>
-      </c>
-      <c r="C11" s="18" t="str">
-        <f>dim_data!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D11" s="19" t="str">
-        <f>dim_data!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
-      </c>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="2:5" ht="15">
-      <c r="B12" s="23" t="str">
-        <f>dim_estabelecimento!B9</f>
-        <v>[dbo].[dim_estabelecimento]</v>
-      </c>
-      <c r="C12" s="18" t="str">
-        <f>dim_estabelecimento!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D12" s="19" t="str">
-        <f>dim_estabelecimento!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
-      </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="2:5" ht="15">
-      <c r="B13" s="23" t="str">
-        <f>dim_fornecedor!B9</f>
-        <v>[dbo].[dim_fornecedor]</v>
-      </c>
-      <c r="C13" s="18" t="str">
-        <f>dim_fornecedor!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D13" s="19" t="str">
-        <f>dim_fornecedor!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx e ods_dim_rentabilidade_LN.dtsx</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="15">
-      <c r="B14" s="23" t="str">
-        <f>dim_item!B9</f>
-        <v>[dbo].[dim_item]</v>
-      </c>
-      <c r="C14" s="18" t="str">
-        <f>dim_item!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D14" s="19" t="str">
-        <f>dim_item!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx e ods_dim_rentabilidade_LN.dtsx</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="15">
-      <c r="B15" s="23" t="str">
-        <f>dim_origem!B9</f>
-        <v>[dbo].[dim_origem]</v>
-      </c>
-      <c r="C15" s="18" t="str">
-        <f>dim_origem!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D15" s="19" t="str">
-        <f>dim_origem!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
-      </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="2:5" ht="15">
-      <c r="B16" s="23" t="str">
-        <f>dim_pagto!B9</f>
-        <v>[dbo].[dim_pagto]</v>
-      </c>
-      <c r="C16" s="18" t="str">
-        <f>dim_pagto!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D16" s="19" t="str">
-        <f>dim_pagto!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="2:5" ht="15">
-      <c r="B17" s="23" t="str">
-        <f>dim_regiao!B9</f>
-        <v>[dbo].[dim_regiao]</v>
-      </c>
-      <c r="C17" s="18" t="str">
-        <f>dim_regiao!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D17" s="19" t="str">
-        <f>dim_regiao!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx e ods_dim_rentabilidade_LN.dtsx</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="15">
-      <c r="B18" s="23" t="str">
-        <f>dim_tipo_cliente!B9</f>
-        <v>[dbo].[dim_tipo_cliente]</v>
-      </c>
-      <c r="C18" s="18" t="str">
-        <f>dim_tipo_cliente!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D18" s="19" t="str">
-        <f>dim_tipo_cliente!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
-      </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="2:5" ht="15">
-      <c r="B19" s="23" t="str">
-        <f>dim_transp!B9</f>
-        <v>[dbo].[dim_transp]</v>
-      </c>
-      <c r="C19" s="18" t="str">
-        <f>dim_transp!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D19" s="19" t="str">
-        <f>dim_transp!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="2:5" ht="15">
-      <c r="B20" s="23" t="str">
-        <f>dim_unineg!B9</f>
-        <v>[dbo].[dim_unineg]</v>
-      </c>
-      <c r="C20" s="18" t="str">
-        <f>dim_unineg!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D20" s="19" t="str">
-        <f>dim_unineg!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
-      </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="2:5" ht="15">
-      <c r="B21" s="23" t="str">
-        <f>dim_vendedor!B9</f>
-        <v>[dbo].[dim_vendedor]</v>
-      </c>
-      <c r="C21" s="18" t="str">
-        <f>dim_vendedor!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D21" s="19" t="str">
-        <f>dim_vendedor!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
-      </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="2:5" ht="15">
-      <c r="B22" s="23" t="str">
-        <f>ods_cliente_corporativo!B9</f>
-        <v>[dbo].[ods_cliente_corporativo]</v>
-      </c>
-      <c r="C22" s="18" t="str">
-        <f>ods_cliente_corporativo!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D22" s="19" t="str">
-        <f>ods_cliente_corporativo!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
-      </c>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="2:5" ht="15">
-      <c r="B23" s="23" t="str">
-        <f>ods_custo_logistico_rateado!B9</f>
-        <v>[dbo].[ods_custo_logistico_rateado]</v>
-      </c>
-      <c r="C23" s="18" t="str">
-        <f>ods_custo_logistico_rateado!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D23" s="19" t="str">
-        <f>ods_custo_logistico_rateado!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_custo_logistico.dtsx</v>
-      </c>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="2:5" ht="15">
-      <c r="B24" s="23" t="str">
-        <f>ods_faturamento_servico!B9</f>
-        <v>[dbo].[ods_faturamento_servico]</v>
-      </c>
-      <c r="C24" s="18" t="str">
-        <f>ods_faturamento_servico!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D24" s="19" t="str">
-        <f>ods_faturamento_servico!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_lucro_servico_ge.dtsx</v>
-      </c>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="2:5" ht="15">
-      <c r="B25" s="23" t="str">
-        <f>ods_orders_ge!B9</f>
-        <v>[dbo].[ods_orders_ge]</v>
-      </c>
-      <c r="C25" s="18" t="str">
-        <f>ods_orders_ge!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D25" s="19" t="str">
-        <f>ods_orders_ge!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
-      </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="2:5" ht="15">
-      <c r="B26" s="23" t="str">
-        <f>ods_orders_profitable!B9</f>
-        <v>[dbo].[ods_orders_profitable]</v>
-      </c>
-      <c r="C26" s="18" t="str">
-        <f>ods_orders_profitable!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D26" s="19" t="str">
-        <f>ods_orders_profitable!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx e ods_dim_rentabilidade_LN.dtsx</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="15">
-      <c r="B27" s="23" t="str">
-        <f>ods_parceiro_mkt!B9</f>
-        <v>[dbo].[ods_parceiro_mkt]</v>
-      </c>
-      <c r="C27" s="18" t="str">
-        <f>ods_parceiro_mkt!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D27" s="19" t="str">
-        <f>ods_parceiro_mkt!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\ods_dim_rentabilidade.dtsx</v>
-      </c>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="2:5" ht="15">
-      <c r="B28" s="23" t="str">
-        <f>stg_campanha_contrato_b2b!B9</f>
-        <v>[dbo].[stg_campanha_contrato_b2b]</v>
-      </c>
-      <c r="C28" s="18" t="str">
-        <f>stg_campanha_contrato_b2b!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D28" s="19" t="str">
-        <f>stg_campanha_contrato_b2b!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_rentabilidade.dtsx</v>
-      </c>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="2:5" ht="15">
-      <c r="B29" s="23" t="str">
-        <f>stg_cliente_corporativo!B9</f>
-        <v>[dbo].[stg_cliente_corporativo]</v>
-      </c>
-      <c r="C29" s="18" t="str">
-        <f>stg_cliente_corporativo!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D29" s="19" t="str">
-        <f>stg_cliente_corporativo!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_rentabilidade.dtsx</v>
-      </c>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="2:5" ht="15">
-      <c r="B30" s="23" t="str">
-        <f>stg_faturamento_servico!B9</f>
-        <v>[dbo].[stg_faturamento_servico]</v>
-      </c>
-      <c r="C30" s="18" t="str">
-        <f>stg_faturamento_servico!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D30" s="19" t="str">
-        <f>stg_faturamento_servico!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_lucro_servico_ge.dtsx</v>
-      </c>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="2:5" ht="15">
-      <c r="B31" s="23" t="str">
-        <f>stg_pedido_campanha_contr_b2b!B9</f>
-        <v>[dbo].[stg_pedido_campanha_contrato_b2b]</v>
-      </c>
-      <c r="C31" s="18" t="str">
-        <f>stg_pedido_campanha_contr_b2b!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D31" s="19" t="str">
-        <f>stg_pedido_campanha_contr_b2b!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_rentabilidade.dtsx</v>
-      </c>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="2:5" ht="15">
-      <c r="B32" s="23" t="str">
-        <f>stg_tipo_cliente!B9</f>
-        <v>[dbo].[stg_tipo_cliente]</v>
-      </c>
-      <c r="C32" s="18" t="str">
-        <f>stg_tipo_cliente!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D32" s="19" t="str">
-        <f>stg_tipo_cliente!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_rentabilidade.dtsx</v>
-      </c>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="2:5" ht="15">
-      <c r="B33" s="23" t="str">
-        <f>tmp_margem!B9</f>
-        <v>[dbo].[tmp_margem]</v>
-      </c>
-      <c r="C33" s="18" t="str">
-        <f>tmp_margem!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D33" s="19" t="str">
-        <f>tmp_margem!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\carga_margem_produto_sas.dtsx</v>
-      </c>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="2:5" ht="15">
-      <c r="B34" s="23" t="str">
-        <f>tmp_orders_ge!B9</f>
-        <v>[dbo].[tmp_orders_ge]</v>
-      </c>
-      <c r="C34" s="18" t="str">
-        <f>tmp_orders_ge!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D34" s="19" t="str">
-        <f>tmp_orders_ge!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_rentabilidade.dtsx</v>
-      </c>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="2:5" ht="15">
-      <c r="B35" s="23" t="str">
-        <f>tmp_orders_profitable!B9</f>
-        <v>[dbo].[tmp_orders_profitable]</v>
-      </c>
-      <c r="C35" s="18" t="str">
-        <f>tmp_orders_profitable!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D35" s="19" t="str">
-        <f>tmp_orders_profitable!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_rentabilidade.dtsx e stg_rentabilidade_LN.dtsx</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="15">
-      <c r="B36" s="23" t="str">
-        <f>tmp_orders_profitable_2!B9</f>
-        <v>[dbo].[tmp_orders_profitable_2]</v>
-      </c>
-      <c r="C36" s="18" t="str">
-        <f>tmp_orders_profitable_2!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D36" s="19" t="str">
-        <f>tmp_orders_profitable_2!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_rentabilidade.dtsx</v>
-      </c>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="2:5" ht="15">
-      <c r="B37" s="23" t="str">
-        <f>tmp_orders_profitable_atacado!B9</f>
-        <v>[dbo].[tmp_orders_profitable_atacado]</v>
-      </c>
-      <c r="C37" s="18" t="str">
-        <f>tmp_orders_profitable_atacado!B8</f>
-        <v>MIS_RENTAB</v>
-      </c>
-      <c r="D37" s="19" t="str">
-        <f>tmp_orders_profitable_atacado!B10</f>
-        <v>N:\Migracao\Rentabilidade Prod\Rentabilidade\stg_rentabilidade_atacado.dtsx</v>
-      </c>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="2:5" ht="15">
-      <c r="B38" s="23"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="2:5" ht="15">
-      <c r="B39" s="23" t="s">
-        <v>656</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="2:5" ht="15">
-      <c r="B40" s="23"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="2:5" ht="15">
-      <c r="B41" s="23"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="14"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="14"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="15"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="13"/>
-    </row>
-  </sheetData>
-  <sortState ref="B3:E37">
-    <sortCondition ref="B37"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="B34" location="tmp_orders_ge!A1" display="tmp_orders_ge!A1"/>
-    <hyperlink ref="B29" location="stg_cliente_corporativo!A1" display="stg_cliente_corporativo!A1"/>
-    <hyperlink ref="B32" location="stg_tipo_cliente!A1" display="stg_tipo_cliente!A1"/>
-    <hyperlink ref="B31" location="stg_pedido_campanha_contr_b2b!A1" display="stg_pedido_campanha_contr_b2b!A1"/>
-    <hyperlink ref="B28" location="stg_campanha_contrato_b2b!A1" display="stg_campanha_contrato_b2b!A1"/>
-    <hyperlink ref="B35" location="tmp_orders_profitable!A1" display="tmp_orders_profitable!A1"/>
-    <hyperlink ref="B36" location="tmp_orders_profitable_2!A1" display="tmp_orders_profitable_2!A1"/>
-    <hyperlink ref="B21" location="dim_vendedor!A1" display="dim_vendedor!A1"/>
-    <hyperlink ref="B11" location="dim_data!A1" display="dim_data!A1"/>
-    <hyperlink ref="B20" location="dim_unineg!A1" display="dim_unineg!A1"/>
-    <hyperlink ref="B14" location="dim_item!A1" display="dim_item!A1"/>
-    <hyperlink ref="B17" location="dim_regiao!A1" display="dim_regiao!A1"/>
-    <hyperlink ref="B19" location="dim_transp!A1" display="dim_transp!A1"/>
-    <hyperlink ref="B9" location="dim_canal!A1" display="dim_canal!A1"/>
-    <hyperlink ref="B16" location="dim_pagto!A1" display="dim_pagto!A1"/>
-    <hyperlink ref="B7" location="dim_campanha!A1" display="dim_campanha!A1"/>
-    <hyperlink ref="B15" location="dim_origem!A1" display="dim_origem!A1"/>
-    <hyperlink ref="B27" location="ods_parceiro_mkt!A1" display="ods_parceiro_mkt!A1"/>
-    <hyperlink ref="B13" location="dim_fornecedor!A1" display="dim_fornecedor!A1"/>
-    <hyperlink ref="B12" location="dim_estabelecimento!A1" display="dim_estabelecimento!A1"/>
-    <hyperlink ref="B22" location="ods_cliente_corporativo!A1" display="ods_cliente_corporativo!A1"/>
-    <hyperlink ref="B10" location="dim_cliente_corporativo!A1" display="dim_cliente_corporativo!A1"/>
-    <hyperlink ref="B18" location="dim_tipo_cliente!A1" display="dim_tipo_cliente!A1"/>
-    <hyperlink ref="B8" location="dim_campanha_contrato_b2b!A1" display="dim_campanha_contrato_b2b!A1"/>
-    <hyperlink ref="B5" location="aux_dim_campanha_contrato_b2b!A1" display="aux_dim_campanha_contrato_b2b!A1"/>
-    <hyperlink ref="B26" location="ods_orders_profitable!A1" display="ods_orders_profitable!A1"/>
-    <hyperlink ref="B25" location="ods_orders_ge!A1" display="ods_orders_ge!A1"/>
-    <hyperlink ref="B37" location="tmp_orders_profitable_atacado!A1" display="tmp_orders_profitable_atacado!A1"/>
-    <hyperlink ref="B30" location="stg_faturamento_servico!A1" display="stg_faturamento_servico!A1"/>
-    <hyperlink ref="B24" location="ods_faturamento_servico!A1" display="ods_faturamento_servico!A1"/>
-    <hyperlink ref="B6" location="aux_estoque_cubado!A1" display="aux_estoque_cubado!A1"/>
-    <hyperlink ref="B4" location="aux_custo_logistico_rateado!A1" display="aux_custo_logistico_rateado!A1"/>
-    <hyperlink ref="B23" location="ods_custo_logistico_rateado!A1" display="ods_custo_logistico_rateado!A1"/>
-    <hyperlink ref="B33" location="tmp_margem!A1" display="tmp_margem!A1"/>
-    <hyperlink ref="B3" location="stg_estrutura_parceiro_b2b!A1" display="stg_estrutura_parceiro_b2b!A1"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
